--- a/temp.xlsx
+++ b/temp.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="172" documentId="13_ncr:1_{D9C64938-E7CD-454A-ACD6-ABB3FD45C197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF2FC771-F691-49E0-9F41-FAF42F81AD8F}"/>
+  <xr:revisionPtr revIDLastSave="177" documentId="13_ncr:1_{D9C64938-E7CD-454A-ACD6-ABB3FD45C197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{482F5038-CD14-4E21-B2D4-45EDFFF9EB28}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -415,7 +415,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5206" uniqueCount="2625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5208" uniqueCount="2625">
   <si>
     <t>Apps</t>
   </si>
@@ -566,550 +566,550 @@
     <t>All user login related</t>
   </si>
   <si>
+    <t>./iproute2</t>
+  </si>
+  <si>
+    <t>./ip-exception-module</t>
+  </si>
+  <si>
+    <t>./libbmm-1.0.0</t>
+  </si>
+  <si>
+    <t>./iptables-1.8.3</t>
+  </si>
+  <si>
+    <t>Firewall</t>
+  </si>
+  <si>
+    <t>./libcf-cache</t>
+  </si>
+  <si>
+    <t>./libdidk</t>
+  </si>
+  <si>
+    <t>./libeeprog-1.0.0</t>
+  </si>
+  <si>
+    <t>./libfirmware-1.0.0</t>
+  </si>
+  <si>
+    <t>./libiface-module-1.0.0</t>
+  </si>
+  <si>
+    <t>./libjwt-1.8.0</t>
+  </si>
+  <si>
+    <t>./libmd5-1.0.0</t>
+  </si>
+  <si>
+    <t>./libmfeng</t>
+  </si>
+  <si>
+    <t>./libmtd-1.0.0</t>
+  </si>
+  <si>
+    <t>./libquantum</t>
+  </si>
+  <si>
+    <t>./libwtp_image-1.0.0</t>
+  </si>
+  <si>
+    <t>./libyang-6wind</t>
+  </si>
+  <si>
+    <t>./libzld_common-1.0.0</t>
+  </si>
+  <si>
+    <t>./libzldc</t>
+  </si>
+  <si>
+    <t>./libzyservice_inspect</t>
+  </si>
+  <si>
+    <t>./linux-armada-4.14</t>
+  </si>
+  <si>
+    <t>./linux-armada-4.14.76</t>
+  </si>
+  <si>
+    <t>./linux-fp-sync</t>
+  </si>
+  <si>
+    <t>./libcloud-query</t>
+  </si>
+  <si>
+    <t>./musdk-marvell</t>
+  </si>
+  <si>
+    <t>./linux-pam-1.3.1</t>
+  </si>
+  <si>
+    <t>Opensource</t>
+  </si>
+  <si>
+    <t>./myzyxel_agent</t>
+  </si>
+  <si>
+    <t>Device registration &amp; Service activation etc. API/URL</t>
+  </si>
+  <si>
+    <t>./nc-cli</t>
+  </si>
+  <si>
+    <t>./myzyxel_agent-library</t>
+  </si>
+  <si>
+    <t>./openssh-8.1p1</t>
+  </si>
+  <si>
+    <t>./openssl-1.1.1g</t>
+  </si>
+  <si>
+    <t>./netsnmp-6wind</t>
+  </si>
+  <si>
+    <t>./pam_debugauth</t>
+  </si>
+  <si>
+    <t>./pam_ldap</t>
+  </si>
+  <si>
+    <t>./pam_radius-1.4.0</t>
+  </si>
+  <si>
+    <t>./platform_common-1.0.0</t>
+  </si>
+  <si>
+    <t>./proftpd-1.3.6c</t>
+  </si>
+  <si>
+    <t>./python-didk</t>
+  </si>
+  <si>
+    <t>./python-libyang-6wind</t>
+  </si>
+  <si>
+    <t>./python-myzyxel</t>
+  </si>
+  <si>
+    <t>./python-sysv-ipc-1.1.0</t>
+  </si>
+  <si>
+    <t>./python-twoFA</t>
+  </si>
+  <si>
+    <t>./python-vsd</t>
+  </si>
+  <si>
+    <t>./python-zld_ioctl</t>
+  </si>
+  <si>
+    <t>./python-zyservice-inspect</t>
+  </si>
+  <si>
+    <t>./openvpn-2.4.9</t>
+  </si>
+  <si>
+    <t>./python-zyxel</t>
+  </si>
+  <si>
+    <t>firmware upgrade</t>
+  </si>
+  <si>
+    <t>./qosmos</t>
+  </si>
+  <si>
+    <t>./python-zyxel-uam</t>
+  </si>
+  <si>
+    <t>./sr2txtd</t>
+  </si>
+  <si>
+    <t>config</t>
+  </si>
+  <si>
+    <t>./strongswan-6wind</t>
+  </si>
+  <si>
+    <t>IPsec VPN</t>
+  </si>
+  <si>
+    <t>./twoFA</t>
+  </si>
+  <si>
+    <t>./userdef_led-module</t>
+  </si>
+  <si>
+    <t>./suricata-4.0.5</t>
+  </si>
+  <si>
+    <t>./ws2nc</t>
+  </si>
+  <si>
+    <t>./zld_alg-module</t>
+  </si>
+  <si>
+    <t>./zld_arp-module</t>
+  </si>
+  <si>
+    <t>./yams</t>
+  </si>
+  <si>
+    <t>./zld_devinet-module</t>
+  </si>
+  <si>
+    <t>./zld_fsutils-1.0.0</t>
+  </si>
+  <si>
+    <t>./zld_ioctl-module</t>
+  </si>
+  <si>
+    <t>./zld_libiface_sysrepo</t>
+  </si>
+  <si>
+    <t>./zld_libproxy_arp</t>
+  </si>
+  <si>
+    <t>./zld_conntrack_data</t>
+  </si>
+  <si>
+    <t>./zld_netfilter-gpl</t>
+  </si>
+  <si>
+    <t>./zld_prefix-1.0.0</t>
+  </si>
+  <si>
+    <t>./zld_netfilter</t>
+  </si>
+  <si>
+    <t>./zld_vsd</t>
+  </si>
+  <si>
+    <t>./zld-kernel-hack</t>
+  </si>
+  <si>
+    <t>./zwd-1.0.0</t>
+  </si>
+  <si>
+    <t>./zyinit_main-1.0.0</t>
+  </si>
+  <si>
+    <t>./zyinit-1.0.0</t>
+  </si>
+  <si>
+    <t>./zyiptables_wrapper-1.0.0</t>
+  </si>
+  <si>
+    <t>./zykit-1.0.0</t>
+  </si>
+  <si>
+    <t>./zld_user_profile</t>
+  </si>
+  <si>
+    <t>./zyxel_mibs</t>
+  </si>
+  <si>
+    <t>./zyxel_nginx_plugin</t>
+  </si>
+  <si>
+    <t>./zyxel_proftpd-1.0.0</t>
+  </si>
+  <si>
+    <t>./zyxel_route_mpath-module-1.0.0</t>
+  </si>
+  <si>
+    <t>./zyxel_sysvinit-1.0.0</t>
+  </si>
+  <si>
+    <t>./zyxel_unzip_native-1.0.0</t>
+  </si>
+  <si>
+    <t>./zyxel_unzip-1.0.0</t>
+  </si>
+  <si>
+    <t>./zyxel_update_fw-1.0.0</t>
+  </si>
+  <si>
+    <t>./zyxel_usb-1.0.0</t>
+  </si>
+  <si>
+    <t>./zylog</t>
+  </si>
+  <si>
+    <t>Log</t>
+  </si>
+  <si>
+    <t>./zyxel-1.0.0</t>
+  </si>
+  <si>
+    <t>./zyxel_ztp-1.0.0</t>
+  </si>
+  <si>
+    <t>ZTP</t>
+  </si>
+  <si>
+    <t>./zyxel-adp-module</t>
+  </si>
+  <si>
+    <t>DoS Prevention (ADP)</t>
+  </si>
+  <si>
+    <t>./zyxel-chksum-tool</t>
+  </si>
+  <si>
+    <t>./zyxel-disklog-module-1.0.0</t>
+  </si>
+  <si>
+    <t>./zyxel-email-daily-report</t>
+  </si>
+  <si>
+    <t>./zyxel-fermion-agent</t>
+  </si>
+  <si>
+    <t>./zyxel-fp-plugin</t>
+  </si>
+  <si>
+    <t>./zyxel-cgi-1.0.0</t>
+  </si>
+  <si>
+    <t>./zyxel-fp-plugin-adp</t>
+  </si>
+  <si>
+    <t>./zyxel-fp-plugin-ifdead-1.0.0</t>
+  </si>
+  <si>
+    <t>./zyxel-fp-plugin-anti-malware-1.0.0</t>
+  </si>
+  <si>
+    <t>./zyxel-fp-plugin-ips</t>
+  </si>
+  <si>
+    <t>IPS</t>
+  </si>
+  <si>
+    <t>./zyxel-fp-plugin-pkt-reorder</t>
+  </si>
+  <si>
+    <t>./zyxel-fp-plugin-sslinsp</t>
+  </si>
+  <si>
+    <t>./zyxel-fp-plugin-zymark</t>
+  </si>
+  <si>
+    <t>./zyxel-geoip</t>
+  </si>
+  <si>
+    <t>./zyxel-fp-plugin-zyparser</t>
+  </si>
+  <si>
+    <t>./zyxel-ip808-1.0.0</t>
+  </si>
+  <si>
+    <t>./zyxel-gui-1.0.0</t>
+  </si>
+  <si>
+    <t>GUI user login (not admin)</t>
+  </si>
+  <si>
+    <t>./zyxel-libutm-common</t>
+  </si>
+  <si>
+    <t>./zyxel-lm96000-1.0.0</t>
+  </si>
+  <si>
+    <t>./zyxel-monitor-coredump</t>
+  </si>
+  <si>
+    <t>./zyxel-neoagent</t>
+  </si>
+  <si>
+    <t>./zyxel-libsslinsp</t>
+  </si>
+  <si>
+    <t>./zyxel-pki</t>
+  </si>
+  <si>
+    <t>./zyxel-platform-support-1.0.0</t>
+  </si>
+  <si>
+    <t>./zyxel-poemgd</t>
+  </si>
+  <si>
+    <t>./zyxel-policyd</t>
+  </si>
+  <si>
+    <t>./zyxel-policyd-module</t>
+  </si>
+  <si>
+    <t>./zyxel-provision-library</t>
+  </si>
+  <si>
+    <t>./zyxel-psm-1.0.0</t>
+  </si>
+  <si>
+    <t>./zyxel-scheduled</t>
+  </si>
+  <si>
+    <t>./zyxel-nfct-gk-module</t>
+  </si>
+  <si>
+    <t>./zyxel-secure-policy</t>
+  </si>
+  <si>
+    <t>./zyxel-secureporter</t>
+  </si>
+  <si>
+    <t>SecuReporter</t>
+  </si>
+  <si>
+    <t>./zyxel-slg46533v-1.0.0</t>
+  </si>
+  <si>
+    <t>./zyxel-ssh-keyrestore</t>
+  </si>
+  <si>
+    <t>./zyxel-security-signature-update</t>
+  </si>
+  <si>
+    <t>./zyxel-sw-cn913x-1.0.0</t>
+  </si>
+  <si>
+    <t>./zyxel-switchdev-1.0.0</t>
+  </si>
+  <si>
+    <t>./zyxel-switch-port</t>
+  </si>
+  <si>
+    <t>./zyxel-switch-tool-1.0.0</t>
+  </si>
+  <si>
+    <t>./zyxel-thermal-1.0.0</t>
+  </si>
+  <si>
+    <t>./zyxel-sslinsp</t>
+  </si>
+  <si>
+    <t>./zyxel-uam</t>
+  </si>
+  <si>
+    <t>./zyxel-umsd-3.0.5</t>
+  </si>
+  <si>
+    <t>./zyxel-usergroupd</t>
+  </si>
+  <si>
+    <t>./zyxel-watchdog-module-1.0.0</t>
+  </si>
+  <si>
+    <t>./zyxel-uam-library</t>
+  </si>
+  <si>
+    <t>./zyxel-web-cgi</t>
+  </si>
+  <si>
+    <t>all user login related (login user 使用者名稱是正確的就ok)</t>
+  </si>
+  <si>
+    <t>./zyxel-zudo</t>
+  </si>
+  <si>
+    <t>python-pyroute2-6wind</t>
+  </si>
+  <si>
+    <t>USGv3/tools-build-framework/sources</t>
+  </si>
+  <si>
+    <t>./zyxel-yams</t>
+  </si>
+  <si>
+    <t>libnetconf2-6wind</t>
+  </si>
+  <si>
+    <t>libyang-6wind</t>
+  </si>
+  <si>
+    <t>nf_ct_forward-module</t>
+  </si>
+  <si>
+    <t>zyxel-fp-plugin-device-insight</t>
+  </si>
+  <si>
+    <t>zyxel-fp-plugin-load-balancer-1.0.0</t>
+  </si>
+  <si>
+    <t>zyxel-nebula</t>
+  </si>
+  <si>
+    <t>aaa_event_handle</t>
+  </si>
+  <si>
+    <t>Prowlan</t>
+  </si>
+  <si>
+    <t>wlan_apmode_rapd</t>
+  </si>
+  <si>
+    <t>ac_module-1.0</t>
+  </si>
+  <si>
+    <t>wtpTimeAgent-1.0.0</t>
+  </si>
+  <si>
+    <t>capwap_srv-2.0</t>
+  </si>
+  <si>
+    <t>pam_radius-1.4.0</t>
+  </si>
+  <si>
+    <t>zyxel-rum</t>
+  </si>
+  <si>
+    <t>scan_manager-1.0.0</t>
+  </si>
+  <si>
+    <t>info_agent-1.0</t>
+  </si>
+  <si>
+    <t>install_wtp-1.0.0</t>
+  </si>
+  <si>
+    <t>common-files</t>
+  </si>
+  <si>
+    <t>groupd-1.0</t>
+  </si>
+  <si>
+    <t>libwtp_image-1.0.0</t>
+  </si>
+  <si>
+    <t>ccd-1.0.0</t>
+  </si>
+  <si>
+    <t>zyxel-scheduled</t>
+  </si>
+  <si>
+    <t>zyxel-geoip</t>
+  </si>
+  <si>
+    <t>zyxel-policyd</t>
+  </si>
+  <si>
+    <t>ddns_had</t>
+  </si>
+  <si>
+    <t>zykit-1.0.0</t>
+  </si>
+  <si>
+    <t>zyxel-notification</t>
+  </si>
+  <si>
+    <t>SRD4</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
     <t>WiFi</t>
-  </si>
-  <si>
-    <t>./iproute2</t>
-  </si>
-  <si>
-    <t>./ip-exception-module</t>
-  </si>
-  <si>
-    <t>./libbmm-1.0.0</t>
-  </si>
-  <si>
-    <t>./iptables-1.8.3</t>
-  </si>
-  <si>
-    <t>Firewall</t>
-  </si>
-  <si>
-    <t>./libcf-cache</t>
-  </si>
-  <si>
-    <t>./libdidk</t>
-  </si>
-  <si>
-    <t>./libeeprog-1.0.0</t>
-  </si>
-  <si>
-    <t>./libfirmware-1.0.0</t>
-  </si>
-  <si>
-    <t>./libiface-module-1.0.0</t>
-  </si>
-  <si>
-    <t>./libjwt-1.8.0</t>
-  </si>
-  <si>
-    <t>./libmd5-1.0.0</t>
-  </si>
-  <si>
-    <t>./libmfeng</t>
-  </si>
-  <si>
-    <t>./libmtd-1.0.0</t>
-  </si>
-  <si>
-    <t>./libquantum</t>
-  </si>
-  <si>
-    <t>./libwtp_image-1.0.0</t>
-  </si>
-  <si>
-    <t>./libyang-6wind</t>
-  </si>
-  <si>
-    <t>./libzld_common-1.0.0</t>
-  </si>
-  <si>
-    <t>./libzldc</t>
-  </si>
-  <si>
-    <t>./libzyservice_inspect</t>
-  </si>
-  <si>
-    <t>./linux-armada-4.14</t>
-  </si>
-  <si>
-    <t>./linux-armada-4.14.76</t>
-  </si>
-  <si>
-    <t>./linux-fp-sync</t>
-  </si>
-  <si>
-    <t>./libcloud-query</t>
-  </si>
-  <si>
-    <t>./musdk-marvell</t>
-  </si>
-  <si>
-    <t>./linux-pam-1.3.1</t>
-  </si>
-  <si>
-    <t>Opensource</t>
-  </si>
-  <si>
-    <t>./myzyxel_agent</t>
-  </si>
-  <si>
-    <t>Device registration &amp; Service activation etc. API/URL</t>
-  </si>
-  <si>
-    <t>./nc-cli</t>
-  </si>
-  <si>
-    <t>./myzyxel_agent-library</t>
-  </si>
-  <si>
-    <t>./openssh-8.1p1</t>
-  </si>
-  <si>
-    <t>./openssl-1.1.1g</t>
-  </si>
-  <si>
-    <t>./netsnmp-6wind</t>
-  </si>
-  <si>
-    <t>./pam_debugauth</t>
-  </si>
-  <si>
-    <t>./pam_ldap</t>
-  </si>
-  <si>
-    <t>./pam_radius-1.4.0</t>
-  </si>
-  <si>
-    <t>./platform_common-1.0.0</t>
-  </si>
-  <si>
-    <t>./proftpd-1.3.6c</t>
-  </si>
-  <si>
-    <t>./python-didk</t>
-  </si>
-  <si>
-    <t>./python-libyang-6wind</t>
-  </si>
-  <si>
-    <t>./python-myzyxel</t>
-  </si>
-  <si>
-    <t>./python-sysv-ipc-1.1.0</t>
-  </si>
-  <si>
-    <t>./python-twoFA</t>
-  </si>
-  <si>
-    <t>./python-vsd</t>
-  </si>
-  <si>
-    <t>./python-zld_ioctl</t>
-  </si>
-  <si>
-    <t>./python-zyservice-inspect</t>
-  </si>
-  <si>
-    <t>./openvpn-2.4.9</t>
-  </si>
-  <si>
-    <t>./python-zyxel</t>
-  </si>
-  <si>
-    <t>firmware upgrade</t>
-  </si>
-  <si>
-    <t>./qosmos</t>
-  </si>
-  <si>
-    <t>./python-zyxel-uam</t>
-  </si>
-  <si>
-    <t>./sr2txtd</t>
-  </si>
-  <si>
-    <t>config</t>
-  </si>
-  <si>
-    <t>./strongswan-6wind</t>
-  </si>
-  <si>
-    <t>IPsec VPN</t>
-  </si>
-  <si>
-    <t>./twoFA</t>
-  </si>
-  <si>
-    <t>./userdef_led-module</t>
-  </si>
-  <si>
-    <t>./suricata-4.0.5</t>
-  </si>
-  <si>
-    <t>./ws2nc</t>
-  </si>
-  <si>
-    <t>./zld_alg-module</t>
-  </si>
-  <si>
-    <t>./zld_arp-module</t>
-  </si>
-  <si>
-    <t>./yams</t>
-  </si>
-  <si>
-    <t>./zld_devinet-module</t>
-  </si>
-  <si>
-    <t>./zld_fsutils-1.0.0</t>
-  </si>
-  <si>
-    <t>./zld_ioctl-module</t>
-  </si>
-  <si>
-    <t>./zld_libiface_sysrepo</t>
-  </si>
-  <si>
-    <t>./zld_libproxy_arp</t>
-  </si>
-  <si>
-    <t>./zld_conntrack_data</t>
-  </si>
-  <si>
-    <t>./zld_netfilter-gpl</t>
-  </si>
-  <si>
-    <t>./zld_prefix-1.0.0</t>
-  </si>
-  <si>
-    <t>./zld_netfilter</t>
-  </si>
-  <si>
-    <t>./zld_vsd</t>
-  </si>
-  <si>
-    <t>./zld-kernel-hack</t>
-  </si>
-  <si>
-    <t>./zwd-1.0.0</t>
-  </si>
-  <si>
-    <t>./zyinit_main-1.0.0</t>
-  </si>
-  <si>
-    <t>./zyinit-1.0.0</t>
-  </si>
-  <si>
-    <t>./zyiptables_wrapper-1.0.0</t>
-  </si>
-  <si>
-    <t>./zykit-1.0.0</t>
-  </si>
-  <si>
-    <t>./zld_user_profile</t>
-  </si>
-  <si>
-    <t>./zyxel_mibs</t>
-  </si>
-  <si>
-    <t>./zyxel_nginx_plugin</t>
-  </si>
-  <si>
-    <t>./zyxel_proftpd-1.0.0</t>
-  </si>
-  <si>
-    <t>./zyxel_route_mpath-module-1.0.0</t>
-  </si>
-  <si>
-    <t>./zyxel_sysvinit-1.0.0</t>
-  </si>
-  <si>
-    <t>./zyxel_unzip_native-1.0.0</t>
-  </si>
-  <si>
-    <t>./zyxel_unzip-1.0.0</t>
-  </si>
-  <si>
-    <t>./zyxel_update_fw-1.0.0</t>
-  </si>
-  <si>
-    <t>./zyxel_usb-1.0.0</t>
-  </si>
-  <si>
-    <t>./zylog</t>
-  </si>
-  <si>
-    <t>Log</t>
-  </si>
-  <si>
-    <t>./zyxel-1.0.0</t>
-  </si>
-  <si>
-    <t>./zyxel_ztp-1.0.0</t>
-  </si>
-  <si>
-    <t>ZTP</t>
-  </si>
-  <si>
-    <t>./zyxel-adp-module</t>
-  </si>
-  <si>
-    <t>DoS Prevention (ADP)</t>
-  </si>
-  <si>
-    <t>./zyxel-chksum-tool</t>
-  </si>
-  <si>
-    <t>./zyxel-disklog-module-1.0.0</t>
-  </si>
-  <si>
-    <t>./zyxel-email-daily-report</t>
-  </si>
-  <si>
-    <t>./zyxel-fermion-agent</t>
-  </si>
-  <si>
-    <t>./zyxel-fp-plugin</t>
-  </si>
-  <si>
-    <t>./zyxel-cgi-1.0.0</t>
-  </si>
-  <si>
-    <t>./zyxel-fp-plugin-adp</t>
-  </si>
-  <si>
-    <t>./zyxel-fp-plugin-ifdead-1.0.0</t>
-  </si>
-  <si>
-    <t>./zyxel-fp-plugin-anti-malware-1.0.0</t>
-  </si>
-  <si>
-    <t>./zyxel-fp-plugin-ips</t>
-  </si>
-  <si>
-    <t>IPS</t>
-  </si>
-  <si>
-    <t>./zyxel-fp-plugin-pkt-reorder</t>
-  </si>
-  <si>
-    <t>./zyxel-fp-plugin-sslinsp</t>
-  </si>
-  <si>
-    <t>./zyxel-fp-plugin-zymark</t>
-  </si>
-  <si>
-    <t>./zyxel-geoip</t>
-  </si>
-  <si>
-    <t>./zyxel-fp-plugin-zyparser</t>
-  </si>
-  <si>
-    <t>./zyxel-ip808-1.0.0</t>
-  </si>
-  <si>
-    <t>./zyxel-gui-1.0.0</t>
-  </si>
-  <si>
-    <t>GUI user login (not admin)</t>
-  </si>
-  <si>
-    <t>./zyxel-libutm-common</t>
-  </si>
-  <si>
-    <t>./zyxel-lm96000-1.0.0</t>
-  </si>
-  <si>
-    <t>./zyxel-monitor-coredump</t>
-  </si>
-  <si>
-    <t>./zyxel-neoagent</t>
-  </si>
-  <si>
-    <t>./zyxel-libsslinsp</t>
-  </si>
-  <si>
-    <t>./zyxel-pki</t>
-  </si>
-  <si>
-    <t>./zyxel-platform-support-1.0.0</t>
-  </si>
-  <si>
-    <t>./zyxel-poemgd</t>
-  </si>
-  <si>
-    <t>./zyxel-policyd</t>
-  </si>
-  <si>
-    <t>./zyxel-policyd-module</t>
-  </si>
-  <si>
-    <t>./zyxel-provision-library</t>
-  </si>
-  <si>
-    <t>./zyxel-psm-1.0.0</t>
-  </si>
-  <si>
-    <t>./zyxel-scheduled</t>
-  </si>
-  <si>
-    <t>./zyxel-nfct-gk-module</t>
-  </si>
-  <si>
-    <t>./zyxel-secure-policy</t>
-  </si>
-  <si>
-    <t>./zyxel-secureporter</t>
-  </si>
-  <si>
-    <t>SecuReporter</t>
-  </si>
-  <si>
-    <t>./zyxel-slg46533v-1.0.0</t>
-  </si>
-  <si>
-    <t>./zyxel-ssh-keyrestore</t>
-  </si>
-  <si>
-    <t>./zyxel-security-signature-update</t>
-  </si>
-  <si>
-    <t>./zyxel-sw-cn913x-1.0.0</t>
-  </si>
-  <si>
-    <t>./zyxel-switchdev-1.0.0</t>
-  </si>
-  <si>
-    <t>./zyxel-switch-port</t>
-  </si>
-  <si>
-    <t>./zyxel-switch-tool-1.0.0</t>
-  </si>
-  <si>
-    <t>./zyxel-thermal-1.0.0</t>
-  </si>
-  <si>
-    <t>./zyxel-sslinsp</t>
-  </si>
-  <si>
-    <t>./zyxel-uam</t>
-  </si>
-  <si>
-    <t>./zyxel-umsd-3.0.5</t>
-  </si>
-  <si>
-    <t>./zyxel-usergroupd</t>
-  </si>
-  <si>
-    <t>./zyxel-watchdog-module-1.0.0</t>
-  </si>
-  <si>
-    <t>./zyxel-uam-library</t>
-  </si>
-  <si>
-    <t>./zyxel-web-cgi</t>
-  </si>
-  <si>
-    <t>all user login related (login user 使用者名稱是正確的就ok)</t>
-  </si>
-  <si>
-    <t>./zyxel-zudo</t>
-  </si>
-  <si>
-    <t>python-pyroute2-6wind</t>
-  </si>
-  <si>
-    <t>USGv3/tools-build-framework/sources</t>
-  </si>
-  <si>
-    <t>./zyxel-yams</t>
-  </si>
-  <si>
-    <t>libnetconf2-6wind</t>
-  </si>
-  <si>
-    <t>libyang-6wind</t>
-  </si>
-  <si>
-    <t>nf_ct_forward-module</t>
-  </si>
-  <si>
-    <t>zyxel-fp-plugin-device-insight</t>
-  </si>
-  <si>
-    <t>zyxel-fp-plugin-load-balancer-1.0.0</t>
-  </si>
-  <si>
-    <t>zyxel-nebula</t>
-  </si>
-  <si>
-    <t>aaa_event_handle</t>
-  </si>
-  <si>
-    <t>Prowlan</t>
-  </si>
-  <si>
-    <t>wlan_apmode_rapd</t>
-  </si>
-  <si>
-    <t>ac_module-1.0</t>
-  </si>
-  <si>
-    <t>wtpTimeAgent-1.0.0</t>
-  </si>
-  <si>
-    <t>capwap_srv-2.0</t>
-  </si>
-  <si>
-    <t>pam_radius-1.4.0</t>
-  </si>
-  <si>
-    <t>zyxel-rum</t>
-  </si>
-  <si>
-    <t>scan_manager-1.0.0</t>
-  </si>
-  <si>
-    <t>info_agent-1.0</t>
-  </si>
-  <si>
-    <t>install_wtp-1.0.0</t>
-  </si>
-  <si>
-    <t>common-files</t>
-  </si>
-  <si>
-    <t>groupd-1.0</t>
-  </si>
-  <si>
-    <t>libwtp_image-1.0.0</t>
-  </si>
-  <si>
-    <t>ccd-1.0.0</t>
-  </si>
-  <si>
-    <t>zyxel-scheduled</t>
-  </si>
-  <si>
-    <t>zyxel-geoip</t>
-  </si>
-  <si>
-    <t>zyxel-policyd</t>
-  </si>
-  <si>
-    <t>ddns_had</t>
-  </si>
-  <si>
-    <t>zykit-1.0.0</t>
-  </si>
-  <si>
-    <t>zyxel-notification</t>
-  </si>
-  <si>
-    <t>SRD4</t>
-  </si>
-  <si>
-    <t>Platform</t>
   </si>
   <si>
     <t>SRD1/SRD2/SRD3</t>
@@ -8450,7 +8450,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8469,6 +8469,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -8483,7 +8489,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -8553,6 +8559,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -8853,8 +8860,8 @@
   <dimension ref="A1:M203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B165" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="E187" sqref="E187"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B147" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="D150" sqref="D150"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -8909,7 +8916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="15.95">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -8918,7 +8925,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:13" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="3" spans="1:13" s="3" customFormat="1" ht="15.95">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -8957,7 +8964,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:13" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="5" spans="1:13" s="3" customFormat="1" ht="15.95">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -8996,7 +9003,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:13" s="30" customFormat="1" ht="15.95" hidden="1">
+    <row r="7" spans="1:13" s="30" customFormat="1" ht="15.95">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -9065,7 +9072,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:13" ht="15.95" hidden="1">
+    <row r="10" spans="1:13" ht="15.95">
       <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
@@ -9107,7 +9114,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:13" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="12" spans="1:13" s="3" customFormat="1" ht="15.95">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
@@ -9119,7 +9126,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:13" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="13" spans="1:13" s="3" customFormat="1" ht="15.95">
       <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
@@ -9150,7 +9157,7 @@
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="1:13" ht="15.95" hidden="1">
+    <row r="15" spans="1:13" ht="15.95">
       <c r="A15" s="3" t="s">
         <v>35</v>
       </c>
@@ -9217,7 +9224,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="18" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
@@ -9280,7 +9287,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" ht="15.95" hidden="1">
+    <row r="21" spans="1:11" ht="15.95">
       <c r="A21" s="3" t="s">
         <v>45</v>
       </c>
@@ -9295,7 +9302,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="22" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A22" s="6" t="s">
         <v>46</v>
       </c>
@@ -9304,7 +9311,7 @@
       <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="35" t="s">
         <v>47</v>
       </c>
       <c r="B23" s="14" t="s">
@@ -9314,7 +9321,7 @@
         <v>15</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E23" s="14">
         <v>112</v>
@@ -9328,9 +9335,9 @@
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
     </row>
-    <row r="24" spans="1:11" ht="15.95" hidden="1">
+    <row r="24" spans="1:11" ht="15.95">
       <c r="A24" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -9345,7 +9352,7 @@
     </row>
     <row r="25" spans="1:11" ht="15.75">
       <c r="A25" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
@@ -9368,9 +9375,9 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="26" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A26" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -9382,10 +9389,10 @@
     </row>
     <row r="27" spans="1:11" s="30" customFormat="1" ht="15.75">
       <c r="A27" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>53</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>54</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>15</v>
@@ -9409,7 +9416,7 @@
     </row>
     <row r="28" spans="1:11" s="3" customFormat="1" ht="15.75">
       <c r="A28" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>15</v>
@@ -9431,9 +9438,9 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="29" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A29" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -9448,9 +9455,9 @@
       <c r="J29" s="22"/>
       <c r="K29" s="22"/>
     </row>
-    <row r="30" spans="1:11" s="30" customFormat="1" ht="15.95" hidden="1">
+    <row r="30" spans="1:11" s="30" customFormat="1" ht="15.95">
       <c r="A30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -9463,9 +9470,9 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:11" ht="15.95" hidden="1">
+    <row r="31" spans="1:11" ht="15.95">
       <c r="A31" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -9478,9 +9485,9 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="32" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A32" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -9490,9 +9497,9 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="33" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A33" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -9502,9 +9509,9 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="34" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A34" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -9514,9 +9521,9 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" s="30" customFormat="1" ht="15.95" hidden="1">
+    <row r="35" spans="1:11" s="30" customFormat="1" ht="15.95">
       <c r="A35" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -9529,9 +9536,9 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="1:11" ht="15.95" hidden="1">
+    <row r="36" spans="1:11" ht="15.95">
       <c r="A36" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -9544,9 +9551,9 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="37" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A37" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -9556,9 +9563,9 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="1:11" s="30" customFormat="1" ht="15.95" hidden="1">
+    <row r="38" spans="1:11" s="30" customFormat="1" ht="15.95">
       <c r="A38" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -9571,18 +9578,18 @@
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="39" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A39" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="12"/>
       <c r="J39" s="4"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="40" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A40" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -9592,9 +9599,9 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="41" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A41" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -9604,9 +9611,9 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="42" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A42" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -9616,9 +9623,9 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="1:11" s="30" customFormat="1" ht="15.95" hidden="1">
+    <row r="43" spans="1:11" s="30" customFormat="1" ht="15.95">
       <c r="A43" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="3"/>
@@ -9631,9 +9638,9 @@
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="1:11" s="30" customFormat="1" ht="15.95" hidden="1">
+    <row r="44" spans="1:11" s="30" customFormat="1" ht="15.95">
       <c r="A44" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -9646,9 +9653,9 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="1:11" s="30" customFormat="1" ht="15.95" hidden="1">
+    <row r="45" spans="1:11" s="30" customFormat="1" ht="15.95">
       <c r="A45" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -9665,7 +9672,7 @@
     </row>
     <row r="46" spans="1:11" s="30" customFormat="1" ht="15.75">
       <c r="A46" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3" t="s">
@@ -9688,9 +9695,9 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="47" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A47" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -9707,10 +9714,10 @@
     </row>
     <row r="48" spans="1:11" s="3" customFormat="1" ht="15.75">
       <c r="A48" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="14" t="s">
         <v>75</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>76</v>
       </c>
       <c r="C48" s="14" t="s">
         <v>15</v>
@@ -9734,10 +9741,10 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" s="14" t="s">
         <v>77</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>78</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>15</v>
@@ -9757,9 +9764,9 @@
       <c r="J49" s="22"/>
       <c r="K49" s="22"/>
     </row>
-    <row r="50" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="50" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A50" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -9776,10 +9783,10 @@
     </row>
     <row r="51" spans="1:11" s="3" customFormat="1" ht="15.75">
       <c r="A51" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C51" s="14" t="s">
         <v>15</v>
@@ -9801,9 +9808,9 @@
       <c r="J51" s="22"/>
       <c r="K51" s="22"/>
     </row>
-    <row r="52" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="52" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A52" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -9813,9 +9820,9 @@
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
     </row>
-    <row r="53" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="53" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A53" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="12"/>
@@ -9824,7 +9831,7 @@
     </row>
     <row r="54" spans="1:11" s="3" customFormat="1" ht="15.75">
       <c r="A54" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>37</v>
@@ -9849,9 +9856,9 @@
       <c r="J54" s="22"/>
       <c r="K54" s="22"/>
     </row>
-    <row r="55" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="55" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A55" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -9861,9 +9868,9 @@
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
     </row>
-    <row r="56" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="56" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A56" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -9878,9 +9885,9 @@
       <c r="J56" s="22"/>
       <c r="K56" s="22"/>
     </row>
-    <row r="57" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="57" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A57" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -9890,9 +9897,9 @@
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
     </row>
-    <row r="58" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="58" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A58" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -9902,18 +9909,18 @@
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
     </row>
-    <row r="59" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="59" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A59" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H59" s="8"/>
       <c r="I59" s="12"/>
       <c r="J59" s="4"/>
       <c r="K59" s="2"/>
     </row>
-    <row r="60" spans="1:11" s="30" customFormat="1" ht="15.95" hidden="1">
+    <row r="60" spans="1:11" s="30" customFormat="1" ht="15.95">
       <c r="A60" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -9926,9 +9933,9 @@
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
     </row>
-    <row r="61" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="61" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A61" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -9938,9 +9945,9 @@
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
     </row>
-    <row r="62" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="62" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A62" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -9950,9 +9957,9 @@
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
     </row>
-    <row r="63" spans="1:11" s="30" customFormat="1" ht="15.95" hidden="1">
+    <row r="63" spans="1:11" s="30" customFormat="1" ht="15.95">
       <c r="A63" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -9965,9 +9972,9 @@
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
     </row>
-    <row r="64" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="64" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A64" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -9977,9 +9984,9 @@
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
     </row>
-    <row r="65" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="65" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A65" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -9989,9 +9996,9 @@
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
     </row>
-    <row r="66" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="66" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A66" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -10001,9 +10008,9 @@
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
     </row>
-    <row r="67" spans="1:11" ht="15.95" hidden="1">
+    <row r="67" spans="1:11" ht="15.95">
       <c r="A67" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -10018,10 +10025,10 @@
     </row>
     <row r="68" spans="1:11" s="3" customFormat="1" ht="15.75">
       <c r="A68" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C68" s="14" t="s">
         <v>15</v>
@@ -10045,10 +10052,10 @@
     </row>
     <row r="69" spans="1:11" s="3" customFormat="1" ht="15.75">
       <c r="A69" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B69" s="14" t="s">
         <v>98</v>
-      </c>
-      <c r="B69" s="14" t="s">
-        <v>99</v>
       </c>
       <c r="C69" s="14" t="s">
         <v>15</v>
@@ -10070,9 +10077,9 @@
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
     </row>
-    <row r="70" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="70" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A70" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B70" s="7"/>
       <c r="H70" s="8"/>
@@ -10082,7 +10089,7 @@
     </row>
     <row r="71" spans="1:11" s="3" customFormat="1" ht="15.75">
       <c r="A71" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B71" s="14"/>
       <c r="C71" s="14" t="s">
@@ -10107,10 +10114,10 @@
     </row>
     <row r="72" spans="1:11" s="3" customFormat="1" ht="15.75">
       <c r="A72" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B72" s="14" t="s">
         <v>102</v>
-      </c>
-      <c r="B72" s="14" t="s">
-        <v>103</v>
       </c>
       <c r="C72" s="14" t="s">
         <v>15</v>
@@ -10134,10 +10141,10 @@
     </row>
     <row r="73" spans="1:11" s="3" customFormat="1" ht="15.75">
       <c r="A73" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B73" s="14" t="s">
         <v>104</v>
-      </c>
-      <c r="B73" s="14" t="s">
-        <v>105</v>
       </c>
       <c r="C73" s="14" t="s">
         <v>15</v>
@@ -10159,9 +10166,9 @@
       <c r="J73" s="22"/>
       <c r="K73" s="22"/>
     </row>
-    <row r="74" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="74" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A74" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -10171,9 +10178,9 @@
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
     </row>
-    <row r="75" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="75" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A75" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -10185,10 +10192,10 @@
     </row>
     <row r="76" spans="1:11" s="3" customFormat="1" ht="15.75">
       <c r="A76" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C76" s="14" t="s">
         <v>15</v>
@@ -10212,7 +10219,7 @@
     </row>
     <row r="77" spans="1:11" s="3" customFormat="1" ht="15.75">
       <c r="A77" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>15</v>
@@ -10234,9 +10241,9 @@
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
     </row>
-    <row r="78" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="78" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A78" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -10246,9 +10253,9 @@
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
     </row>
-    <row r="79" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="79" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A79" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -10260,7 +10267,7 @@
     </row>
     <row r="80" spans="1:11" s="3" customFormat="1" ht="15.75">
       <c r="A80" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B80" s="14" t="s">
         <v>37</v>
@@ -10285,9 +10292,9 @@
       <c r="J80" s="22"/>
       <c r="K80" s="22"/>
     </row>
-    <row r="81" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="81" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A81" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -10297,9 +10304,9 @@
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
     </row>
-    <row r="82" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="82" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A82" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -10309,9 +10316,9 @@
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
     </row>
-    <row r="83" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="83" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A83" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -10321,9 +10328,9 @@
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
     </row>
-    <row r="84" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="84" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A84" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -10333,9 +10340,9 @@
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
     </row>
-    <row r="85" spans="1:11" ht="15.95" hidden="1">
+    <row r="85" spans="1:11" ht="15.95">
       <c r="A85" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -10350,7 +10357,7 @@
     </row>
     <row r="86" spans="1:11" s="3" customFormat="1" ht="15.75">
       <c r="A86" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B86" s="14"/>
       <c r="C86" s="14" t="s">
@@ -10373,9 +10380,9 @@
       <c r="J86" s="22"/>
       <c r="K86" s="22"/>
     </row>
-    <row r="87" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="87" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A87" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -10385,9 +10392,9 @@
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
     </row>
-    <row r="88" spans="1:11" ht="15.95" hidden="1">
+    <row r="88" spans="1:11" ht="15.95">
       <c r="A88" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -10402,7 +10409,7 @@
     </row>
     <row r="89" spans="1:11" s="3" customFormat="1" ht="15.75">
       <c r="A89" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B89" s="14"/>
       <c r="C89" s="14" t="s">
@@ -10425,9 +10432,9 @@
       <c r="J89" s="22"/>
       <c r="K89" s="22"/>
     </row>
-    <row r="90" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="90" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A90" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -10437,9 +10444,9 @@
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
     </row>
-    <row r="91" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="91" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A91" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -10449,9 +10456,9 @@
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
     </row>
-    <row r="92" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="92" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A92" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -10461,9 +10468,9 @@
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
     </row>
-    <row r="93" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="93" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A93" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -10473,9 +10480,9 @@
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
     </row>
-    <row r="94" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="94" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A94" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B94" s="7"/>
       <c r="H94" s="8"/>
@@ -10483,9 +10490,9 @@
       <c r="J94" s="4"/>
       <c r="K94" s="2"/>
     </row>
-    <row r="95" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="95" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A95" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -10495,9 +10502,9 @@
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
     </row>
-    <row r="96" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="96" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A96" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -10509,7 +10516,7 @@
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B97" s="14" t="s">
         <v>48</v>
@@ -10532,9 +10539,9 @@
       <c r="J97" s="22"/>
       <c r="K97" s="22"/>
     </row>
-    <row r="98" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="98" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A98" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -10544,9 +10551,9 @@
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
     </row>
-    <row r="99" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="99" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A99" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -10556,18 +10563,18 @@
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
     </row>
-    <row r="100" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="100" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A100" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H100" s="8"/>
       <c r="I100" s="12"/>
       <c r="J100" s="4"/>
       <c r="K100" s="2"/>
     </row>
-    <row r="101" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="101" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A101" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -10577,9 +10584,9 @@
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
     </row>
-    <row r="102" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="102" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A102" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -10589,9 +10596,9 @@
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
     </row>
-    <row r="103" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="103" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A103" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
@@ -10601,9 +10608,9 @@
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
     </row>
-    <row r="104" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="104" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A104" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
@@ -10613,9 +10620,9 @@
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
     </row>
-    <row r="105" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="105" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A105" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
@@ -10625,9 +10632,9 @@
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
     </row>
-    <row r="106" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="106" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A106" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
@@ -10639,10 +10646,10 @@
     </row>
     <row r="107" spans="1:11" s="20" customFormat="1" ht="15.75">
       <c r="A107" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B107" s="14" t="s">
         <v>139</v>
-      </c>
-      <c r="B107" s="14" t="s">
-        <v>140</v>
       </c>
       <c r="C107" s="14" t="s">
         <v>15</v>
@@ -10664,9 +10671,9 @@
       <c r="J107" s="22"/>
       <c r="K107" s="22"/>
     </row>
-    <row r="108" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="108" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A108" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
@@ -10678,10 +10685,10 @@
     </row>
     <row r="109" spans="1:11" s="3" customFormat="1" ht="15.75">
       <c r="A109" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="B109" s="33" t="s">
         <v>142</v>
-      </c>
-      <c r="B109" s="33" t="s">
-        <v>143</v>
       </c>
       <c r="C109" s="33" t="s">
         <v>15</v>
@@ -10699,10 +10706,10 @@
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B110" s="14" t="s">
         <v>144</v>
-      </c>
-      <c r="B110" s="14" t="s">
-        <v>145</v>
       </c>
       <c r="C110" s="14" t="s">
         <v>15</v>
@@ -10722,9 +10729,9 @@
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
     </row>
-    <row r="111" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="111" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A111" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -10734,9 +10741,9 @@
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
     </row>
-    <row r="112" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="112" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A112" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
@@ -10746,9 +10753,9 @@
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
     </row>
-    <row r="113" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="113" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A113" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
@@ -10758,9 +10765,9 @@
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
     </row>
-    <row r="114" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="114" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A114" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
@@ -10775,9 +10782,9 @@
       <c r="J114" s="22"/>
       <c r="K114" s="22"/>
     </row>
-    <row r="115" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="115" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A115" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B115" s="20"/>
       <c r="E115" s="1"/>
@@ -10790,7 +10797,7 @@
     </row>
     <row r="116" spans="1:11" s="3" customFormat="1" ht="15.75">
       <c r="A116" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>15</v>
@@ -10814,7 +10821,7 @@
     </row>
     <row r="117" spans="1:11" s="3" customFormat="1" ht="15.75">
       <c r="A117" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>15</v>
@@ -10836,9 +10843,9 @@
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
     </row>
-    <row r="118" spans="1:11" s="30" customFormat="1" ht="15.95" hidden="1">
+    <row r="118" spans="1:11" s="30" customFormat="1" ht="15.95">
       <c r="A118" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B118" s="14"/>
       <c r="C118" s="14"/>
@@ -10855,7 +10862,7 @@
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B119" s="14" t="s">
         <v>14</v>
@@ -10880,10 +10887,10 @@
     </row>
     <row r="120" spans="1:11" s="3" customFormat="1" ht="15.75">
       <c r="A120" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B120" s="14" t="s">
         <v>155</v>
-      </c>
-      <c r="B120" s="14" t="s">
-        <v>156</v>
       </c>
       <c r="C120" s="14" t="s">
         <v>15</v>
@@ -10907,7 +10914,7 @@
     </row>
     <row r="121" spans="1:11" s="3" customFormat="1" ht="15.75">
       <c r="A121" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>15</v>
@@ -10931,7 +10938,7 @@
     </row>
     <row r="122" spans="1:11" s="3" customFormat="1" ht="15.75">
       <c r="A122" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>15</v>
@@ -10955,7 +10962,7 @@
     </row>
     <row r="123" spans="1:11" s="3" customFormat="1" ht="15.75">
       <c r="A123" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B123" s="14"/>
       <c r="C123" s="14" t="s">
@@ -10978,9 +10985,9 @@
       <c r="J123" s="22"/>
       <c r="K123" s="22"/>
     </row>
-    <row r="124" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="124" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A124" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B124" s="5"/>
       <c r="H124" s="8"/>
@@ -10988,7 +10995,7 @@
     </row>
     <row r="125" spans="1:11" s="30" customFormat="1" ht="15.75">
       <c r="A125" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B125" s="14" t="s">
         <v>14</v>
@@ -11013,9 +11020,9 @@
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
     </row>
-    <row r="126" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="126" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A126" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -11027,10 +11034,10 @@
     </row>
     <row r="127" spans="1:11" ht="15.75">
       <c r="A127" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="B127" s="27" t="s">
         <v>163</v>
-      </c>
-      <c r="B127" s="27" t="s">
-        <v>164</v>
       </c>
       <c r="C127" s="14" t="s">
         <v>15</v>
@@ -11052,9 +11059,9 @@
       <c r="J127" s="32"/>
       <c r="K127" s="22"/>
     </row>
-    <row r="128" spans="1:11" s="30" customFormat="1" ht="15.95" hidden="1">
+    <row r="128" spans="1:11" s="30" customFormat="1" ht="15.95">
       <c r="A128" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -11067,9 +11074,9 @@
       <c r="J128" s="2"/>
       <c r="K128" s="2"/>
     </row>
-    <row r="129" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="129" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A129" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
@@ -11079,9 +11086,9 @@
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
     </row>
-    <row r="130" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="130" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A130" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
@@ -11091,9 +11098,9 @@
       <c r="J130" s="2"/>
       <c r="K130" s="2"/>
     </row>
-    <row r="131" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="131" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A131" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B131" s="14"/>
       <c r="C131" s="14"/>
@@ -11110,7 +11117,7 @@
     </row>
     <row r="132" spans="1:11" ht="15.75">
       <c r="A132" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B132" s="3"/>
       <c r="C132" s="3" t="s">
@@ -11133,9 +11140,9 @@
       <c r="J132" s="2"/>
       <c r="K132" s="2"/>
     </row>
-    <row r="133" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="133" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A133" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
@@ -11145,9 +11152,9 @@
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
     </row>
-    <row r="134" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="134" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A134" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
@@ -11157,9 +11164,9 @@
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
     </row>
-    <row r="135" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="135" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A135" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
@@ -11169,9 +11176,9 @@
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
     </row>
-    <row r="136" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="136" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A136" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
@@ -11181,9 +11188,9 @@
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
     </row>
-    <row r="137" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="137" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A137" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
@@ -11193,9 +11200,9 @@
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
     </row>
-    <row r="138" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="138" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A138" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B138" s="14"/>
       <c r="C138" s="14"/>
@@ -11210,9 +11217,9 @@
       <c r="J138" s="22"/>
       <c r="K138" s="22"/>
     </row>
-    <row r="139" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="139" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A139" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
@@ -11222,9 +11229,9 @@
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
     </row>
-    <row r="140" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="140" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A140" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
@@ -11236,7 +11243,7 @@
     </row>
     <row r="141" spans="1:11" s="3" customFormat="1" ht="15.75">
       <c r="A141" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B141" s="14"/>
       <c r="C141" s="14" t="s">
@@ -11261,10 +11268,10 @@
     </row>
     <row r="142" spans="1:11" s="30" customFormat="1" ht="15.75">
       <c r="A142" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C142" s="14" t="s">
         <v>15</v>
@@ -11288,10 +11295,10 @@
     </row>
     <row r="143" spans="1:11" s="3" customFormat="1" ht="15.75">
       <c r="A143" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="B143" s="14" t="s">
         <v>180</v>
-      </c>
-      <c r="B143" s="14" t="s">
-        <v>181</v>
       </c>
       <c r="C143" s="14" t="s">
         <v>15</v>
@@ -11313,9 +11320,9 @@
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
     </row>
-    <row r="144" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="144" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A144" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
@@ -11325,9 +11332,9 @@
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
     </row>
-    <row r="145" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="145" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A145" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
@@ -11339,7 +11346,7 @@
     </row>
     <row r="146" spans="1:11" s="3" customFormat="1" ht="15.75">
       <c r="A146" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>15</v>
@@ -11361,9 +11368,9 @@
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
     </row>
-    <row r="147" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="147" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A147" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
@@ -11373,9 +11380,9 @@
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
     </row>
-    <row r="148" spans="1:11" ht="15.95" hidden="1">
+    <row r="148" spans="1:11" ht="15.95">
       <c r="A148" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -11388,9 +11395,9 @@
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
     </row>
-    <row r="149" spans="1:11" s="30" customFormat="1" ht="15.95" hidden="1">
+    <row r="149" spans="1:11" s="30" customFormat="1" ht="15.95">
       <c r="A149" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -11403,9 +11410,15 @@
       <c r="J149" s="2"/>
       <c r="K149" s="2"/>
     </row>
-    <row r="150" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="150" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A150" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
@@ -11415,9 +11428,9 @@
       <c r="J150" s="2"/>
       <c r="K150" s="2"/>
     </row>
-    <row r="151" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="151" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A151" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
@@ -11429,7 +11442,7 @@
     </row>
     <row r="152" spans="1:11" s="3" customFormat="1" ht="15.75">
       <c r="A152" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>15</v>
@@ -11453,7 +11466,7 @@
     </row>
     <row r="153" spans="1:11" s="3" customFormat="1" ht="15.75">
       <c r="A153" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B153" s="14" t="s">
         <v>48</v>
@@ -11478,9 +11491,9 @@
       <c r="J153" s="22"/>
       <c r="K153" s="22"/>
     </row>
-    <row r="154" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="154" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A154" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
@@ -11490,9 +11503,9 @@
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
     </row>
-    <row r="155" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="155" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A155" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
@@ -11502,9 +11515,9 @@
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
     </row>
-    <row r="156" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="156" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A156" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
@@ -11516,7 +11529,7 @@
     </row>
     <row r="157" spans="1:11" s="3" customFormat="1" ht="15.75">
       <c r="A157" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B157" s="14" t="s">
         <v>48</v>
@@ -11543,10 +11556,10 @@
     </row>
     <row r="158" spans="1:11" s="3" customFormat="1" ht="15.75">
       <c r="A158" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B158" s="14" t="s">
         <v>196</v>
-      </c>
-      <c r="B158" s="14" t="s">
-        <v>197</v>
       </c>
       <c r="C158" s="14" t="s">
         <v>15</v>
@@ -11568,9 +11581,9 @@
       <c r="J158" s="22"/>
       <c r="K158" s="22"/>
     </row>
-    <row r="159" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="159" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A159" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
@@ -11580,9 +11593,9 @@
       <c r="J159" s="2"/>
       <c r="K159" s="2"/>
     </row>
-    <row r="160" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="160" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A160" s="29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B160" s="29"/>
       <c r="E160" s="1"/>
@@ -11593,15 +11606,15 @@
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
     </row>
-    <row r="161" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="161" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A161" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B161" s="5"/>
       <c r="H161" s="8"/>
       <c r="I161" s="12"/>
     </row>
-    <row r="162" spans="1:11" s="3" customFormat="1" ht="15.95" hidden="1">
+    <row r="162" spans="1:11" s="3" customFormat="1" ht="15.95">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="H162" s="8"/>
@@ -11609,10 +11622,10 @@
     </row>
     <row r="163" spans="1:11" ht="15" customHeight="1">
       <c r="A163" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C163" s="14" t="s">
         <v>15</v>
@@ -11634,7 +11647,7 @@
     </row>
     <row r="164" spans="1:11" ht="15" customHeight="1">
       <c r="A164" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C164" s="14" t="s">
         <v>15</v>
@@ -11654,7 +11667,7 @@
     </row>
     <row r="165" spans="1:11" ht="15" customHeight="1">
       <c r="A165" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C165" s="14" t="s">
         <v>15</v>
@@ -11665,7 +11678,7 @@
     </row>
     <row r="166" spans="1:11" ht="15" customHeight="1">
       <c r="A166" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C166" s="14" t="s">
         <v>15</v>
@@ -11685,7 +11698,7 @@
     </row>
     <row r="167" spans="1:11" ht="15" customHeight="1">
       <c r="A167" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C167" s="14" t="s">
         <v>15</v>
@@ -11705,7 +11718,7 @@
     </row>
     <row r="168" spans="1:11" ht="15" customHeight="1">
       <c r="A168" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C168" s="14" t="s">
         <v>15</v>
@@ -11725,7 +11738,7 @@
     </row>
     <row r="169" spans="1:11" ht="15" customHeight="1">
       <c r="A169" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C169" s="14" t="s">
         <v>15</v>
@@ -11736,150 +11749,150 @@
     </row>
     <row r="170" spans="1:11" ht="15" customHeight="1">
       <c r="A170" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C170" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D170" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="171" spans="1:11" ht="15" customHeight="1">
       <c r="A171" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C171" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D171" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="172" spans="1:11" ht="15" customHeight="1">
       <c r="A172" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C172" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D172" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="173" spans="1:11" ht="15" customHeight="1">
       <c r="A173" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C173" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D173" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="174" spans="1:11" ht="15" customHeight="1">
       <c r="A174" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C174" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D174" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="175" spans="1:11" ht="15" customHeight="1">
       <c r="A175" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C175" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D175" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="176" spans="1:11" ht="15" customHeight="1">
       <c r="A176" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C176" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D176" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="15" customHeight="1">
       <c r="A177" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C177" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D177" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="15" customHeight="1">
       <c r="A178" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C178" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D178" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="15" customHeight="1">
       <c r="A179" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C179" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D179" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="15" customHeight="1">
       <c r="A180" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C180" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D180" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="15" customHeight="1">
       <c r="A181" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C181" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D181" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="15" customHeight="1">
       <c r="A182" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C182" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D182" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="15" customHeight="1">
       <c r="A183" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C183" s="14" t="s">
         <v>15</v>
@@ -11890,7 +11903,7 @@
     </row>
     <row r="184" spans="1:4" ht="15" customHeight="1">
       <c r="A184" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C184" s="14" t="s">
         <v>15</v>
@@ -11901,7 +11914,7 @@
     </row>
     <row r="185" spans="1:4" ht="15" customHeight="1">
       <c r="A185" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C185" s="14" t="s">
         <v>15</v>
@@ -11912,7 +11925,7 @@
     </row>
     <row r="186" spans="1:4" ht="15" customHeight="1">
       <c r="A186" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C186" s="14" t="s">
         <v>15</v>
@@ -11923,7 +11936,7 @@
     </row>
     <row r="187" spans="1:4" ht="15" customHeight="1">
       <c r="A187" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C187" s="14" t="s">
         <v>15</v>
@@ -11934,7 +11947,7 @@
     </row>
     <row r="188" spans="1:4" ht="15" customHeight="1">
       <c r="A188" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C188" s="14" t="s">
         <v>15</v>
@@ -11945,7 +11958,7 @@
     </row>
     <row r="189" spans="1:4" ht="15" customHeight="1">
       <c r="A189" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C189" s="14" t="s">
         <v>15</v>
@@ -11979,25 +11992,25 @@
     </row>
     <row r="196" spans="1:5" ht="15" customHeight="1">
       <c r="A196" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B196" s="24"/>
     </row>
     <row r="197" spans="1:5" ht="15" customHeight="1">
       <c r="A197" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B197" s="24"/>
     </row>
     <row r="198" spans="1:5" ht="15" customHeight="1">
       <c r="A198" s="24" t="s">
-        <v>49</v>
+        <v>230</v>
       </c>
       <c r="B198" s="24"/>
     </row>
     <row r="199" spans="1:5" ht="15" customHeight="1">
       <c r="A199" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B199" s="24"/>
     </row>
@@ -28423,7 +28436,7 @@
         <v>1129</v>
       </c>
       <c r="B1992" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1992" s="16" t="s">
         <v>264</v>
@@ -31265,6 +31278,91 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaLengthInSeconds xmlns="dd63971e-2dda-47c9-94b9-f73647979ce9" xsi:nil="true"/>
+    <SharedWithUsers xmlns="a24367ed-94ed-449a-8bbf-ad27f9f85ef7">
+      <UserInfo>
+        <DisplayName>ChiaNan Chiu-邱佳男</DisplayName>
+        <AccountId>31</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Chris Lin-林益新</DisplayName>
+        <AccountId>19</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Daniel Lin-林哲宏</DisplayName>
+        <AccountId>39</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Glenn Chen-陳維哲</DisplayName>
+        <AccountId>33</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Jacky Chen-陳璽文</DisplayName>
+        <AccountId>205</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Jacky Lin-林文添</DisplayName>
+        <AccountId>38</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Jinhua Gu-古進華</DisplayName>
+        <AccountId>206</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>KuoShu Tseng-曾國書</DisplayName>
+        <AccountId>29</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Leo Wang-王青文</DisplayName>
+        <AccountId>181</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Owen Lee-李琪文</DisplayName>
+        <AccountId>30</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Rain Li-李雨龍</DisplayName>
+        <AccountId>35</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Sam Pan-潘志勝</DisplayName>
+        <AccountId>9</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Spot Kuo-郭振忠</DisplayName>
+        <AccountId>170</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Vincent Huang-黃韋誠</DisplayName>
+        <AccountId>13</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="dd63971e-2dda-47c9-94b9-f73647979ce9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="a24367ed-94ed-449a-8bbf-ad27f9f85ef7" xsi:nil="true"/>
+    <label xmlns="dd63971e-2dda-47c9-94b9-f73647979ce9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文件" ma:contentTypeID="0x010100A343057B6BF65647B8AC3648CC2E1375" ma:contentTypeVersion="19" ma:contentTypeDescription="建立新的文件。" ma:contentTypeScope="" ma:versionID="f3a41f181626d979ac490e3a7bf69c61">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dd63971e-2dda-47c9-94b9-f73647979ce9" xmlns:ns3="a24367ed-94ed-449a-8bbf-ad27f9f85ef7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3bd6ee72b5aff9fa3ec127215c0272af" ns2:_="" ns3:_="">
     <xsd:import namespace="dd63971e-2dda-47c9-94b9-f73647979ce9"/>
@@ -31521,99 +31619,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MediaLengthInSeconds xmlns="dd63971e-2dda-47c9-94b9-f73647979ce9" xsi:nil="true"/>
-    <SharedWithUsers xmlns="a24367ed-94ed-449a-8bbf-ad27f9f85ef7">
-      <UserInfo>
-        <DisplayName>ChiaNan Chiu-邱佳男</DisplayName>
-        <AccountId>31</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Chris Lin-林益新</DisplayName>
-        <AccountId>19</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Daniel Lin-林哲宏</DisplayName>
-        <AccountId>39</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Glenn Chen-陳維哲</DisplayName>
-        <AccountId>33</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Jacky Chen-陳璽文</DisplayName>
-        <AccountId>205</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Jacky Lin-林文添</DisplayName>
-        <AccountId>38</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Jinhua Gu-古進華</DisplayName>
-        <AccountId>206</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>KuoShu Tseng-曾國書</DisplayName>
-        <AccountId>29</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Leo Wang-王青文</DisplayName>
-        <AccountId>181</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Owen Lee-李琪文</DisplayName>
-        <AccountId>30</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Rain Li-李雨龍</DisplayName>
-        <AccountId>35</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Sam Pan-潘志勝</DisplayName>
-        <AccountId>9</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Spot Kuo-郭振忠</DisplayName>
-        <AccountId>170</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Vincent Huang-黃韋誠</DisplayName>
-        <AccountId>13</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="dd63971e-2dda-47c9-94b9-f73647979ce9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="a24367ed-94ed-449a-8bbf-ad27f9f85ef7" xsi:nil="true"/>
-    <label xmlns="dd63971e-2dda-47c9-94b9-f73647979ce9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB124B1F-5B5A-4385-83D3-CD228D3FDA84}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91830258-4696-4C53-9EF6-DE8DAAD60813}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F58D4B74-C460-4AB5-8538-EE3EBA40668A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F58D4B74-C460-4AB5-8538-EE3EBA40668A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91830258-4696-4C53-9EF6-DE8DAAD60813}"/>
 </file>